--- a/2023-04-20_my_excel_file.xlsx
+++ b/2023-04-20_my_excel_file.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hello</t>
+          <t>Hello Guys</t>
         </is>
       </c>
     </row>
